--- a/medicine/Enfance/Bernadette_Gervais/Bernadette_Gervais.xlsx
+++ b/medicine/Enfance/Bernadette_Gervais/Bernadette_Gervais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernadette Gervais est une auteure jeunesse et illustratrice belge, née à Bruxelles en 1959. Elle travaille pour la littérature jeunesse, la bande dessinée, et est également affichiste.
 Elle a publié un grand nombre d'albums avec Francisco Pittau. Ils sont connus sous le nom de « Pittau &amp; Gervais ».
@@ -512,16 +524,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernadette Gervais a étudié une année à l’école « le 75 », École supérieure des arts de l’image, puis a suivi des études aux Beaux-Arts de Mons[1]. Elle a ensuite travaillé dix ans comme employée de bureau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernadette Gervais a étudié une année à l’école « le 75 », École supérieure des arts de l’image, puis a suivi des études aux Beaux-Arts de Mons. Elle a ensuite travaillé dix ans comme employée de bureau.
 Elle a publié plus d'une centaine d'ouvrages, dans des maisons d'éditions jeunesse notoires dont Gallimard, Seuil, Mango jeunesse ou Albin Michel  jeunesse.
-Elle écrit et illustre des albums, et travaille également avec Francesco Pittau[1], depuis son tout premier album publié, en 1992. Ils sont depuis « connus sous le nom de « Pittau &amp; Gervais » »[1],[2].
-« En 2004, leur éditeur, Jacques Binsztok, quitte les éditions du Seuil pour fonder, toujours avec Brigitte Morel, les éditions du Panama, qui devront malheureusement fermer boutique cinq ans plus tard. Bernadette Gervais et Francesco Pittau continuent alors à travailler avec Brigitte Morel aux Éditions des Grandes Personnes. »[1]
-En 2011 ils publient Visite au zoo[2] et L'imagier des saisons, pour qui, selon Sophie Van der Linden, « derrière l’apparence de l’imagier traditionnel superbement exécuté, émerge l’intelligence de sa conception et de sa réalisation. Une intelligence remarquable dans le style même du dessin, dont la belle homogénéité, la rigueur graphique, les subtils jeux de textures et la douceur des teintes en même temps que leur vitalité, construisent un ensemble impressionnant de virtuosité[3]. ». En 2014 ils signent l'album Couleurs. Pour Sophie Van der Linden « Un sens de l'épure comme une connaissance aboutie des systèmes permettent ainsi à Pittau et Gervais d'offrir aux tout petits un ouvrage lumineux. (...) La rigueur formelle des lignes, des découpes, de la mise en page n'exclut en rien le geste, inscrit dans les traces laissées par le pinceau ou le crayonné des contours des figures, achevant donc, par cette juste répartition entre art et technique d'atteindre un équilibre parfait[4]. »
-En 2020, elle obtient la « Pépite d'Or »[5] au Salon du livre et de la presse jeunesse pour l'album qu'elle a écrit et illustré : ABC de la nature.
-En 2021 est publié son album Des trucs comme ci, des trucs comme ça. Pour Sophie Van der Linden : « Perfectionnant, affinant, de livre en livre sa technique très personnelle du pochoir, Bernadette Gervais élabore des images remarquables de texture, de sensations, de vivant. Et pourtant, ce sont ici des objets qui rejoignent la compagnie des animaux et végétaux[6] ». L'album est récompensé de la "Mention" Prix BolognaRagazzi 2022, catégorie Non Fiction[7] à la Foire du livre de jeunesse de Bologne. 
-Elle est lauréate de deux Prix Libbylit (décernés par l'IBBY), catégorie Album belge[8], en 2021 pour En 4 temps[9], et en 2023 pour Petite et Grande Ourses.
+Elle écrit et illustre des albums, et travaille également avec Francesco Pittau, depuis son tout premier album publié, en 1992. Ils sont depuis « connus sous le nom de « Pittau &amp; Gervais » »,.
+« En 2004, leur éditeur, Jacques Binsztok, quitte les éditions du Seuil pour fonder, toujours avec Brigitte Morel, les éditions du Panama, qui devront malheureusement fermer boutique cinq ans plus tard. Bernadette Gervais et Francesco Pittau continuent alors à travailler avec Brigitte Morel aux Éditions des Grandes Personnes. »
+En 2011 ils publient Visite au zoo et L'imagier des saisons, pour qui, selon Sophie Van der Linden, « derrière l’apparence de l’imagier traditionnel superbement exécuté, émerge l’intelligence de sa conception et de sa réalisation. Une intelligence remarquable dans le style même du dessin, dont la belle homogénéité, la rigueur graphique, les subtils jeux de textures et la douceur des teintes en même temps que leur vitalité, construisent un ensemble impressionnant de virtuosité. ». En 2014 ils signent l'album Couleurs. Pour Sophie Van der Linden « Un sens de l'épure comme une connaissance aboutie des systèmes permettent ainsi à Pittau et Gervais d'offrir aux tout petits un ouvrage lumineux. (...) La rigueur formelle des lignes, des découpes, de la mise en page n'exclut en rien le geste, inscrit dans les traces laissées par le pinceau ou le crayonné des contours des figures, achevant donc, par cette juste répartition entre art et technique d'atteindre un équilibre parfait. »
+En 2020, elle obtient la « Pépite d'Or » au Salon du livre et de la presse jeunesse pour l'album qu'elle a écrit et illustré : ABC de la nature.
+En 2021 est publié son album Des trucs comme ci, des trucs comme ça. Pour Sophie Van der Linden : « Perfectionnant, affinant, de livre en livre sa technique très personnelle du pochoir, Bernadette Gervais élabore des images remarquables de texture, de sensations, de vivant. Et pourtant, ce sont ici des objets qui rejoignent la compagnie des animaux et végétaux ». L'album est récompensé de la "Mention" Prix BolognaRagazzi 2022, catégorie Non Fiction à la Foire du livre de jeunesse de Bologne. 
+Elle est lauréate de deux Prix Libbylit (décernés par l'IBBY), catégorie Album belge, en 2021 pour En 4 temps, et en 2023 pour Petite et Grande Ourses.
 </t>
         </is>
       </c>
@@ -550,30 +564,12 @@
           <t>Quelques ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Elle a écrit et illustré plus d'une centaine d'albums. 
-Auteure du texte et illustratrice
-Le champignon, Albin Michel jeunesse, 2016
-Fabuleuse heure bleue, Albin Michel jeunesse, 2018
-Série Ikko , Les Grandes personnes, 2018- en cours (2023)
-On échange ![10],[11], Seuil jeunesse, 2019
-En 4 temps[9], Albin Michel Jeunesse, 2020
-ABC de la nature[12], Éditions des Grandes Personnes, 2020
-Des trucs comme ci, des trucs comme ça[6], Éditions des Grandes Personnes, 2021
-Petite et Grande Ourses, La Partie, 2022
-Avec Francisco Pittau
-Elle a publié un grand nombre d'albums avec Francisco Pittau[1].  Ils sont « connus sous le nom de « Pittau &amp; Gervais » »[1],[2].
-Le voyage sous les étoiles, Seuil, 1992
-Axinamu, éditions du Panama, 2008 ; rééd. les Grandes personnes, 2010
-Le pays gris, Mango jeunesse, 2010
-Oiseaux[13], Les Grandes personnes, 2010
-Pipi ! Crotte ! Prout !, Seuil Jeunesse, 2012
-Une année avec l'ours José[14], les Grandes personnes, 2018
-Visite au zoo[2], Gallimard jeunesse-Giboulées, 2011
-Imagier des saisons[3], éd. Les Grandes personnes, 2011
-Promenade au jardin, Gallimard jeunesse-Giboulées, 2012
-Couleurs[4], éditions Albin Michel Jeunesse, 2014</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a écrit et illustré plus d'une centaine d'albums. 
+</t>
         </is>
       </c>
     </row>
@@ -598,21 +594,112 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Auteure du texte et illustratrice</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le champignon, Albin Michel jeunesse, 2016
+Fabuleuse heure bleue, Albin Michel jeunesse, 2018
+Série Ikko , Les Grandes personnes, 2018- en cours (2023)
+On échange ! Seuil jeunesse, 2019
+En 4 temps, Albin Michel Jeunesse, 2020
+ABC de la nature, Éditions des Grandes Personnes, 2020
+Des trucs comme ci, des trucs comme ça, Éditions des Grandes Personnes, 2021
+Petite et Grande Ourses, La Partie, 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bernadette_Gervais</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Gervais</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques ouvrages</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Avec Francisco Pittau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elle a publié un grand nombre d'albums avec Francisco Pittau.  Ils sont « connus sous le nom de « Pittau &amp; Gervais » »,.
+Le voyage sous les étoiles, Seuil, 1992
+Axinamu, éditions du Panama, 2008 ; rééd. les Grandes personnes, 2010
+Le pays gris, Mango jeunesse, 2010
+Oiseaux, Les Grandes personnes, 2010
+Pipi ! Crotte ! Prout !, Seuil Jeunesse, 2012
+Une année avec l'ours José, les Grandes personnes, 2018
+Visite au zoo, Gallimard jeunesse-Giboulées, 2011
+Imagier des saisons, éd. Les Grandes personnes, 2011
+Promenade au jardin, Gallimard jeunesse-Giboulées, 2012
+Couleurs, éditions Albin Michel Jeunesse, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bernadette_Gervais</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bernadette_Gervais</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">2010 : Mention spéciale Prix Libbylit (décerné par l'IBBY) pour Oxiseau et pour Axinamu, avec Francisco Pittau
-2020 :  « Pépite d'Or » du Salon du livre et de la presse jeunesse[5] pour ABC de la nature
+2020 :  « Pépite d'Or » du Salon du livre et de la presse jeunesse pour ABC de la nature
 2021 :
- Premio nazionale Nati per Leggere[15] du Salon international du livre (Turin) pour En 4 temps
+ Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour En 4 temps
 Prix Libbylit (décerné par l'IBBY), catégorie Album belge, pour En 4 temps
 2022 :
- "Mention" Prix BolognaRagazzi, catégorie Non Fiction[7], Foire du livre de jeunesse de Bologne  pour Des trucs comme ci, des trucs comme ça
-« Honour List »[16] de l' IBBY pour En 4 temps
-2023 : Prix Libbylit[8] (décerné par l'IBBY), catégorie Album belge, pour Petite et Grande Ourses
-Sept de ses ouvrages font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF)[17].
+ "Mention" Prix BolognaRagazzi, catégorie Non Fiction, Foire du livre de jeunesse de Bologne  pour Des trucs comme ci, des trucs comme ça
+« Honour List » de l' IBBY pour En 4 temps
+2023 : Prix Libbylit (décerné par l'IBBY), catégorie Album belge, pour Petite et Grande Ourses
+Sept de ses ouvrages font partie de la « Bibliothèque jeunesse idéale » du Centre national de la littérature pour la jeunesse (BnF).
 </t>
         </is>
       </c>
